--- a/LCD/tables/stages.xlsx
+++ b/LCD/tables/stages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D360C-9021-4F75-B4F4-CA1F6DFCE5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07ADD29-BBA7-4CB9-B1A6-9FED0046A53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
